--- a/分組名單.xlsx
+++ b/分組名單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH00002\電催過程指標追蹤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F108E46-0CA5-4B1D-9937-AB8D818D3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929FB54-48E2-4468-9658-583DAF35EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
   <si>
     <t xml:space="preserve">Group </t>
   </si>
@@ -445,6 +445,16 @@
   </si>
   <si>
     <t>KH00648</t>
+  </si>
+  <si>
+    <t>KH00790</t>
+  </si>
+  <si>
+    <t>KH00790 PRING SREYVIN</t>
+  </si>
+  <si>
+    <t>Write off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -602,6 +612,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +630,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +688,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B419C8FD-6D0A-4A81-975C-558D98D43F1D}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1710,9 +1734,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B62 B64:B1048576 B63:C63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B18:C19 B22:C25">

--- a/分組名單.xlsx
+++ b/分組名單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH00002\電催過程指標追蹤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9929FB54-48E2-4468-9658-583DAF35EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6983CF4E-1BCD-466A-9869-816FB8776E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t xml:space="preserve">Group </t>
   </si>
@@ -455,6 +455,12 @@
   <si>
     <t>Write off</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH00862</t>
+  </si>
+  <si>
+    <t>KH00862 CHORN SORPHEA</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B419C8FD-6D0A-4A81-975C-558D98D43F1D}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1240,14 +1246,14 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>72</v>
+      <c r="A18" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1255,10 +1261,10 @@
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1266,32 +1272,32 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>58</v>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
+      <c r="B22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1299,10 +1305,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1310,10 +1316,10 @@
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1321,32 +1327,32 @@
         <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="17" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1354,10 +1360,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1365,10 +1371,10 @@
         <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1376,10 +1382,10 @@
         <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1387,32 +1393,32 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>33</v>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>34</v>
+      <c r="B33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1420,21 +1426,21 @@
         <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1442,10 +1448,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1453,10 +1459,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1464,10 +1470,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1475,21 +1481,21 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1497,10 +1503,10 @@
         <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>43</v>
+        <v>113</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1508,10 +1514,10 @@
         <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>44</v>
+        <v>114</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1519,10 +1525,10 @@
         <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>115</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1530,10 +1536,10 @@
         <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>46</v>
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1541,21 +1547,21 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1563,10 +1569,10 @@
         <v>74</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1574,10 +1580,10 @@
         <v>74</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1585,32 +1591,32 @@
         <v>74</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>52</v>
+      <c r="B50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>53</v>
+      <c r="B51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1618,10 +1624,10 @@
         <v>74</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1629,10 +1635,10 @@
         <v>74</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1640,10 +1646,10 @@
         <v>74</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1651,43 +1657,43 @@
         <v>74</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1695,10 +1701,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1706,10 +1712,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1717,10 +1723,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1728,29 +1734,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="21" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B62 B64:B1048576 B63:C63">
+  <conditionalFormatting sqref="B65:B1048576 B64:C64 B1:B63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20 B18:C19 B22:C25">
+  <conditionalFormatting sqref="B21 B19:C20 B23:C26">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1768,7 +1785,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C17">
+  <conditionalFormatting sqref="B10:C18">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1777,7 +1794,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C34">
+  <conditionalFormatting sqref="B27:C35">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1786,7 +1803,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C39">
+  <conditionalFormatting sqref="B36:C40">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1795,7 +1812,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:C42">
+  <conditionalFormatting sqref="B41:C43">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1804,7 +1821,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
+  <conditionalFormatting sqref="B44:C44">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1813,7 +1830,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C45">
+  <conditionalFormatting sqref="B45:C46">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1822,7 +1839,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C50">
+  <conditionalFormatting sqref="B51:C51">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1831,7 +1848,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:C56">
+  <conditionalFormatting sqref="B57:C57">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1840,7 +1857,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>

--- a/分組名單.xlsx
+++ b/分組名單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KH00002\電催過程指標追蹤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6983CF4E-1BCD-466A-9869-816FB8776E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A4DD1-0BB7-4B28-A376-AD7422232299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F542E188-406D-42D9-9DDB-C4572B0BC5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">Group </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -461,6 +458,17 @@
   </si>
   <si>
     <t>KH00862 CHORN SORPHEA</t>
+  </si>
+  <si>
+    <t>KH00866 So Sopheaktra </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH00866</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -626,7 +634,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1045,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B419C8FD-6D0A-4A81-975C-558D98D43F1D}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1060,713 +1070,721 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>22</v>
+      <c r="A57" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="20" t="s">
-        <v>60</v>
+      <c r="A59" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B65:B1048576 B64:C64 B1:B63">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B21 B19:C20 B23:C26">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
@@ -1775,6 +1793,9 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B1048576 B65:C65 B1:B64">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C9">
     <cfRule type="iconSet" priority="12">
@@ -1848,7 +1869,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:C57">
+  <conditionalFormatting sqref="B58:C58">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
